--- a/raster-data-key.xlsx
+++ b/raster-data-key.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
@@ -31,12 +31,21 @@
     <t xml:space="preserve">offset</t>
   </si>
   <si>
+    <t xml:space="preserve">dir</t>
+  </si>
+  <si>
     <t xml:space="preserve">filename</t>
   </si>
   <si>
+    <t xml:space="preserve">nodata</t>
+  </si>
+  <si>
     <t xml:space="preserve">mean annual temp</t>
   </si>
   <si>
+    <t xml:space="preserve">/home/mcoving/Dropbox/sync/projects/Dolines/comparison_data/chelsa_v2/envicloud/chelsa/chelsa_V2/GLOBAL/climatologies/1981-2010/bio/</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHELSA_bio1_1981-2010_V.2.1.tif</t>
   </si>
   <si>
@@ -80,6 +89,87 @@
   </si>
   <si>
     <t xml:space="preserve">CHELSA_pet_penman_mean_1981-2010_V.2.1.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cmi mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHELSA_cmi_mean_1981-2010_V.2.1.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">carbonate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/home/mcoving/Dropbox/sync/projects/Dolines/comparison_data/gNATSGO/UC-Davis-agg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">caco3_kg_sq_m.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clay.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ksat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_ksat.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">organic matter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">om_kg_sq_m.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ph.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depth res</t>
+  </si>
+  <si>
+    <t xml:space="preserve">resdept.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock fragments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rf_025.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sand.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">silt.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soil_depth.tif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water storage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water_storage.tif</t>
   </si>
 </sst>
 </file>
@@ -89,11 +179,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -113,11 +204,6 @@
     <font>
       <b val="true"/>
       <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -175,7 +261,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,16 +286,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="20.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="30.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="30.97"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -225,10 +311,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.1</v>
@@ -237,12 +329,18 @@
         <v>-273.15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.1</v>
@@ -250,13 +348,19 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.1</v>
@@ -264,13 +368,19 @@
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.1</v>
@@ -278,13 +388,19 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0.1</v>
@@ -292,13 +408,19 @@
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0.1</v>
@@ -306,13 +428,19 @@
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.1</v>
@@ -320,13 +448,19 @@
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0.01</v>
@@ -334,8 +468,274 @@
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
+      <c r="D9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>32767</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>-9999</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>-9999</v>
       </c>
     </row>
   </sheetData>

--- a/raster-data-key.xlsx
+++ b/raster-data-key.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t xml:space="preserve">parameter</t>
   </si>
@@ -59,12 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">CHELSA_bio3_1981-2010_V.2.1.tif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature seasonality</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHELSA_bio4_1981-2010_V.2.1.tif</t>
   </si>
   <si>
     <t xml:space="preserve">annual precipitation</t>
@@ -286,10 +280,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -443,7 +437,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -463,7 +457,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -471,36 +465,36 @@
       <c r="D9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="0" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>32767</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>7</v>
+      <c r="D10" s="0" t="s">
+        <v>24</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>32767</v>
+        <v>-9999</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
@@ -509,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>27</v>
@@ -529,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="0" t="s">
         <v>29</v>
@@ -549,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>31</v>
@@ -569,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="0" t="s">
         <v>33</v>
@@ -589,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E15" s="0" t="s">
         <v>35</v>
@@ -609,7 +603,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E16" s="0" t="s">
         <v>37</v>
@@ -629,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E17" s="0" t="s">
         <v>39</v>
@@ -649,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>41</v>
@@ -669,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" s="0" t="s">
         <v>43</v>
@@ -689,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>45</v>
@@ -709,32 +703,12 @@
         <v>0</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E21" s="0" t="s">
         <v>47</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>-9999</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F22" s="0" t="n">
         <v>-9999</v>
       </c>
     </row>

--- a/raster-data-key.xlsx
+++ b/raster-data-key.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">mean annual temp</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/mcoving/Dropbox/sync/projects/Dolines/comparison_data/chelsa_v2/envicloud/chelsa/chelsa_V2/GLOBAL/climatologies/1981-2010/bio/</t>
+    <t xml:space="preserve">./comparison-datasets/chelsa_v2/envicloud/chelsa/chelsa_V2/GLOBAL/climatologies/1981-2010/bio/</t>
   </si>
   <si>
     <t xml:space="preserve">CHELSA_bio1_1981-2010_V.2.1.tif</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">carbonate</t>
   </si>
   <si>
-    <t xml:space="preserve">/home/mcoving/Dropbox/sync/projects/Dolines/comparison_data/gNATSGO/UC-Davis-agg</t>
+    <t xml:space="preserve">./comparison-datasets/UC-Davis-soil-properties/</t>
   </si>
   <si>
     <t xml:space="preserve">caco3_kg_sq_m.tif</t>
@@ -283,7 +283,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -312,7 +312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>6</v>
       </c>
@@ -332,7 +332,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
@@ -352,7 +352,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
@@ -372,7 +372,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
@@ -392,7 +392,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>15</v>
       </c>
@@ -412,7 +412,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>17</v>
       </c>
@@ -432,7 +432,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>19</v>
       </c>
@@ -452,7 +452,7 @@
         <v>32767</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>21</v>
       </c>
